--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-07HJR0C\si_pegawai_v1\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>PIN</t>
   </si>
@@ -44,12 +39,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,10 +187,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,14 +396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -422,7 +415,7 @@
     <col min="8" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2111</v>
       </c>
@@ -460,7 +453,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2111</v>
       </c>
@@ -480,7 +473,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2111</v>
       </c>
@@ -500,7 +493,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2111</v>
       </c>
@@ -522,7 +515,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2112</v>
       </c>
@@ -543,7 +536,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2112</v>
       </c>
@@ -566,7 +559,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2113</v>
       </c>
@@ -587,7 +580,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2114</v>
       </c>
@@ -610,7 +603,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>2114</v>
       </c>
@@ -633,7 +626,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>2115</v>
       </c>
@@ -656,7 +649,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>2115</v>
       </c>
@@ -679,7 +672,22 @@
       <c r="L12" s="6"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>2116</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44214.145833101851</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -687,12 +695,22 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>2116</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44214.597221932869</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -702,7 +720,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -717,7 +735,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -732,7 +750,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -747,7 +765,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -762,7 +780,7 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -777,7 +795,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -792,7 +810,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -807,7 +825,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -822,7 +840,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -837,7 +855,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -852,7 +870,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -867,7 +885,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -882,7 +900,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -897,7 +915,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -919,24 +937,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
